--- a/data-raw/data_module-input.xlsx
+++ b/data-raw/data_module-input.xlsx
@@ -3,18 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="iMeta_aggs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Level1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Conjoint_var" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="weight_conjoint" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Level1!$A$1:$C$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">weight_conjoint!$A$1:$K$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Level1!$A$1:$C$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">weight_conjoint!$A$1:$K$40</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="888">
   <si>
     <t xml:space="preserve">Initial weight --&gt;</t>
   </si>
@@ -238,13 +247,16 @@
     <t>Conflict</t>
   </si>
   <si>
+    <t>DesastresNat</t>
+  </si>
+  <si>
     <t>Refugiados</t>
   </si>
   <si>
     <t>Deportadas</t>
   </si>
   <si>
-    <t>Ris.Despl</t>
+    <t>RisDespl</t>
   </si>
   <si>
     <t>IDP</t>
@@ -256,139 +268,142 @@
     <t>Delitos</t>
   </si>
   <si>
-    <t>IntraFam.Violencia</t>
-  </si>
-  <si>
-    <t>Grup.Crim</t>
-  </si>
-  <si>
-    <t>Inseg.Alim</t>
+    <t>ViolenciaMujer</t>
+  </si>
+  <si>
+    <t>IntraFamViolencia</t>
+  </si>
+  <si>
+    <t>GrupCrim</t>
+  </si>
+  <si>
+    <t>InsegAlim</t>
   </si>
   <si>
     <t>Dormitoria</t>
   </si>
   <si>
-    <t>S.A.4</t>
-  </si>
-  <si>
-    <t>S.E.1</t>
-  </si>
-  <si>
-    <t>S.E.2</t>
-  </si>
-  <si>
-    <t>S.E.3</t>
-  </si>
-  <si>
-    <t>S.G.1</t>
-  </si>
-  <si>
-    <t>S.G.2</t>
-  </si>
-  <si>
-    <t>S.G.3</t>
-  </si>
-  <si>
-    <t>S.G.4</t>
-  </si>
-  <si>
-    <t>S.G.5</t>
-  </si>
-  <si>
-    <t>S.G.6</t>
-  </si>
-  <si>
-    <t>S.G.7</t>
-  </si>
-  <si>
-    <t>S.G.8</t>
-  </si>
-  <si>
-    <t>S.T.1</t>
-  </si>
-  <si>
-    <t>S.T.2</t>
-  </si>
-  <si>
-    <t>S.T.3</t>
-  </si>
-  <si>
-    <t>S.T.4</t>
-  </si>
-  <si>
-    <t>C.C.1</t>
-  </si>
-  <si>
-    <t>C.C.2</t>
-  </si>
-  <si>
-    <t>C.C.3</t>
-  </si>
-  <si>
-    <t>C.C.4</t>
-  </si>
-  <si>
-    <t>C.E.4</t>
-  </si>
-  <si>
-    <t>C.E.5</t>
-  </si>
-  <si>
-    <t>C.E.6</t>
-  </si>
-  <si>
-    <t>C.E.8</t>
-  </si>
-  <si>
-    <t>C.E.9</t>
-  </si>
-  <si>
-    <t>C.E.10</t>
-  </si>
-  <si>
-    <t>C.E.11</t>
-  </si>
-  <si>
-    <t>C.I.1</t>
-  </si>
-  <si>
-    <t>C.I.2</t>
-  </si>
-  <si>
-    <t>C.I.3</t>
-  </si>
-  <si>
-    <t>C.I.4</t>
-  </si>
-  <si>
-    <t>C.I.5</t>
-  </si>
-  <si>
-    <t>C.I.6</t>
-  </si>
-  <si>
-    <t>C.I.7</t>
-  </si>
-  <si>
-    <t>C.J.1</t>
-  </si>
-  <si>
-    <t>C.J.2</t>
-  </si>
-  <si>
-    <t>C.J.3</t>
-  </si>
-  <si>
-    <t>C.S.1</t>
-  </si>
-  <si>
-    <t>C.S.2</t>
-  </si>
-  <si>
-    <t>C.S.3</t>
-  </si>
-  <si>
-    <t>C.S.4</t>
+    <t>VivCollectCalle</t>
+  </si>
+  <si>
+    <t>Gini</t>
+  </si>
+  <si>
+    <t>PIB</t>
+  </si>
+  <si>
+    <t>Pobreza</t>
+  </si>
+  <si>
+    <t>Discapacidad</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Extranjera</t>
+  </si>
+  <si>
+    <t>Afrodesc</t>
+  </si>
+  <si>
+    <t>Xinca</t>
+  </si>
+  <si>
+    <t>Garifu</t>
+  </si>
+  <si>
+    <t>Mest</t>
+  </si>
+  <si>
+    <t>Desemp</t>
+  </si>
+  <si>
+    <t>Trabinfant</t>
+  </si>
+  <si>
+    <t>EmpleoForm</t>
+  </si>
+  <si>
+    <t>Dependencia</t>
+  </si>
+  <si>
+    <t>ParticipComm</t>
+  </si>
+  <si>
+    <t>InstComm</t>
+  </si>
+  <si>
+    <t>ExclComm</t>
+  </si>
+  <si>
+    <t>CapAlbergues</t>
+  </si>
+  <si>
+    <t>Matriculation</t>
+  </si>
+  <si>
+    <t>EducBasic</t>
+  </si>
+  <si>
+    <t>EducUniv</t>
+  </si>
+  <si>
+    <t>Analfabetas</t>
+  </si>
+  <si>
+    <t>EducGastos</t>
+  </si>
+  <si>
+    <t>Alumnos</t>
+  </si>
+  <si>
+    <t>Graduand</t>
+  </si>
+  <si>
+    <t>GestAdmin</t>
+  </si>
+  <si>
+    <t>GestEstr</t>
+  </si>
+  <si>
+    <t>GestFin</t>
+  </si>
+  <si>
+    <t>ServPub</t>
+  </si>
+  <si>
+    <t>InversPubl</t>
+  </si>
+  <si>
+    <t>AccElectr</t>
+  </si>
+  <si>
+    <t>CubiertaAgua</t>
+  </si>
+  <si>
+    <t>FunctJusticia</t>
+  </si>
+  <si>
+    <t>Estabjusticia</t>
+  </si>
+  <si>
+    <t>Resolucion</t>
+  </si>
+  <si>
+    <t>EstSalud</t>
+  </si>
+  <si>
+    <t>Medicaos</t>
+  </si>
+  <si>
+    <t>CondEstSalud</t>
+  </si>
+  <si>
+    <t>SaludGastos</t>
   </si>
   <si>
     <t>GT0101</t>
@@ -2413,12 +2428,12 @@
     <t>Quesada</t>
   </si>
   <si>
+    <t>Parent</t>
+  </si>
+  <si>
     <t>iCode</t>
   </si>
   <si>
-    <t>Parent</t>
-  </si>
-  <si>
     <t>iName</t>
   </si>
   <si>
@@ -2477,13 +2492,216 @@
   </si>
   <si>
     <t xml:space="preserve">Indice de vulnerabilidad municipal</t>
+  </si>
+  <si>
+    <t>level2</t>
+  </si>
+  <si>
+    <t>Level1_lab</t>
+  </si>
+  <si>
+    <t>level1</t>
+  </si>
+  <si>
+    <t>Level3</t>
+  </si>
+  <si>
+    <t>level2_conj</t>
+  </si>
+  <si>
+    <t>Level2</t>
+  </si>
+  <si>
+    <t>Accesohumanitario</t>
+  </si>
+  <si>
+    <t>Riesgodesastres</t>
+  </si>
+  <si>
+    <t>Alimentacion</t>
+  </si>
+  <si>
+    <t>Gruposvulnerables</t>
+  </si>
+  <si>
+    <t>Comunidad</t>
+  </si>
+  <si>
+    <t>ServiciosBasicos</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>statistic</t>
+  </si>
+  <si>
+    <t>Dim</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>std.error</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>amce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existen facciones (o bandos) de comunidades en permanente conflicto. Hay uso de armas constantemente y poco diálogo.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay conflictos entre comunidades que se resuelven por medio del diálogo y algunas veces llevan a la violencia. No siempre son las mismas comunidades las que son parte del conflicto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No hay conflictos violentos entre comunidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay grupos grandes de personas en movilidad humana transitando por el municipio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se observan personas en movlidad humana transitando individualmente o en grupos pequeños por el municipio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se observan personas en movilidad humana transitando por el municipio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los desastres naturales se producen con frecuencia y provocan habitualmente daños en la infraestructura o requieren que las personas se tengan que alojar en albergues o desplazar de sus comunidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los desastres naturales se producen solo eventualmente y no provocan grandes daños en infraestructura ni requieren que muchas personas se tengan que alojar en albergues o desplazar de sus comunidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casi no se producen desastres naturales y cuando lo hacen apenas dañan la infraestructura ni requieren que las personas se tengan que alojar en albergues o desplazar de sus comunidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay un ambiente de violencia generalizada: la mayoría de comercios son extorsionados, secuestros frecuentes y hallazgo de cuerpos habitualmente. Las personas no salen de noche y evitan ciertas áreas "rojas".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algunas veces se escuchan noticias de violencia (secuestros, hallazgos de cuerpos, extorsiones). Los habitantes de la municipio escuchan rara vez balazos. Caminan con cierta precaución en la calle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la comunidad no se escuchan noticias sobre secuestros, extorsiones y asesinatos. La población camina en la calle tranquila.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No existen apenas formas de organización comunitaria ni redes de apoyo disponibles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existen algunas organizaciones comunitarias y redes de apoyo, pero sólo alcanzan a una parte de la población.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existen una fuerte organización comunitaria y redes de apoyo consolidadas que alcanzan a la mayoría de la población.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo una pequeña parte de los niños, niñas y adolescentes asisten a la escuela. Las escuelas están en malas condiciones y/o se cuenta con pocos maestros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte de los niños, niñas y adolescentes asisten a la escuela, pero las escuelas no están en las mejores condiciones y/o puede faltar personal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos los niños, niñas y adolescentes asisten a la escuela. Las condiciones de la escuela son adecuadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Ministerio Público no logra dar seguimiento a las denuncias que se presentan. Los casos en los Juzgados no avanzan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Ministerio Público da seguimiento a varios casos, pero la mayoría los archiva. Los Juzgados resuelven algunos casos con rapidez, pero otros no avanzan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Ministerio Público investiga casi todas las denuncias que se le presentan. Los Juzgados resuelven eficazmente los casos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inexistentes o pocos puestos de salud. Mala atención, no hay medicamentos y/o no hay suficiente personal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puestos de salud logran atender a la mayoría de la población. La disponibilidad de personal y medicamentos es insuficiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los puestos de salud atienden a toda la población y tienen disponible medicamentos y personal suficiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mayoría de los hogares no tienen acceso a electricidad, agua potable y/o saneamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aproximadamente la mitad de los hogares tienen acceso a electricidad, agua potable y/o saneamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mayoría de los hogares tienen acceso a electricidad, agua potable y saneamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mayoría de la población no tiene acceso a suficiente alimentación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una parte de la población tiene acceso a alimentación suficiente mientras otra parte tiene dificultades para alimentarse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mayoría de la población tiene acceso a alimentación suficiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El municipio no tiene apenas sectores estratégicos y su economía es débil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El municipio cuenta con algunos sectores estratégicos (agricultura, industria y/o servicios) y mantiene una economía modesta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El municipio cuenta con varios sectores estratégicos (agricultura, industria y/o servicios) y su economía es sólida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las mujeres, personas LGBTIQ+, personas indígenas, personas con discapacidad y otros grupos vulnerables son discriminadas y excluidas/expulsadas de su comunidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las mujeres, personas LGBTIQ+, personas indígenas, personas con discapacidad y otros grupos vulnerables enfrentan dificultades en su vida diaria por discriminación, pero no son excluidas de la comunidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las mujeres, personas LGBTIQ+, personas indígenas, personas con discapacidad y otros grupos vulnerables pueden desenvolverse plenamente en su comunidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mayoría de personas no logran encontrar un trabajo que les permita cubrir sus necesidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Una parte de la población posee un trabajo que permite cubrir sus necesidades mientras que otra parte no.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La mayoría de personas tienen acceso a un trabajo que permite cubrir sus necesidades.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="160" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="161" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="162" formatCode="0.000000000000000000"/>
+    <numFmt numFmtId="163" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000000000000"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -2505,6 +2723,13 @@
     <font>
       <b/>
       <sz val="11.000000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -2516,7 +2741,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2537,6 +2762,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
@@ -2548,12 +2779,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2636,33 +2882,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="3" fillId="4" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="43">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="4" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1">
@@ -2686,17 +2967,77 @@
     <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="3" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="4" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="5" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf fontId="1" fillId="2" borderId="6" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="1" fillId="2" borderId="7" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="8" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="9" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="2" fillId="3" borderId="10" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="2" fillId="3" borderId="11" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="2" fillId="3" borderId="12" numFmtId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf fontId="3" fillId="4" borderId="1" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="3" fillId="4" borderId="1" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="3" fillId="4" borderId="1" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="162" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="163" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Check Cell" xfId="3" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3209,6 +3550,7 @@
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" width="13.140625"/>
     <col bestFit="1" customWidth="1" min="2" max="2" width="28.5703125"/>
+    <col customWidth="1" min="11" max="11" width="18.421875"/>
     <col customWidth="1" min="16" max="16" width="9.42578125"/>
   </cols>
   <sheetData>
@@ -3892,171 +4234,171 @@
         <v>73</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AI5" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AJ5" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AK5" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AL5" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AM5" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AN5" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AO5" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AP5" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AQ5" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AR5" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AS5" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AT5" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AU5" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AW5" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AX5" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AY5" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AZ5" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="BA5" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="BB5" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="BC5" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="BD5" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D6">
         <v>9.0999999999999996</v>
@@ -4184,10 +4526,10 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D7">
         <v>7.7999999999999998</v>
@@ -4315,10 +4657,10 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D8">
         <v>4.2000000000000002</v>
@@ -4446,10 +4788,10 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D9">
         <v>2.5</v>
@@ -4577,10 +4919,10 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -4708,10 +5050,10 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D11">
         <v>7.2000000000000002</v>
@@ -4839,10 +5181,10 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D12">
         <v>7.4000000000000004</v>
@@ -4970,10 +5312,10 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D13">
         <v>9.1999999999999993</v>
@@ -5101,10 +5443,10 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D14">
         <v>4.2000000000000002</v>
@@ -5232,10 +5574,10 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D15">
         <v>2.6000000000000001</v>
@@ -5363,10 +5705,10 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D16">
         <v>2.5</v>
@@ -5494,10 +5836,10 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D17">
         <v>5.2999999999999998</v>
@@ -5622,10 +5964,10 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D18">
         <v>2.6000000000000001</v>
@@ -5753,10 +6095,10 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D19">
         <v>7.7000000000000002</v>
@@ -5884,10 +6226,10 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D20">
         <v>8.0999999999999996</v>
@@ -6015,10 +6357,10 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D21">
         <v>8.6999999999999993</v>
@@ -6146,10 +6488,10 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D22">
         <v>4.5999999999999996</v>
@@ -6277,10 +6619,10 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D23">
         <v>5.0999999999999996</v>
@@ -6408,10 +6750,10 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D24">
         <v>4.2999999999999998</v>
@@ -6536,10 +6878,10 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D25">
         <v>4.7999999999999998</v>
@@ -6667,10 +7009,10 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D26">
         <v>3.8999999999999999</v>
@@ -6798,10 +7140,10 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D27">
         <v>3.7999999999999998</v>
@@ -6929,10 +7271,10 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D28">
         <v>2.2000000000000002</v>
@@ -7060,10 +7402,10 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D29">
         <v>6.2999999999999998</v>
@@ -7191,10 +7533,10 @@
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D30">
         <v>2.7999999999999998</v>
@@ -7322,10 +7664,10 @@
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D31">
         <v>8.5</v>
@@ -7453,10 +7795,10 @@
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D32">
         <v>3.7000000000000002</v>
@@ -7584,10 +7926,10 @@
     </row>
     <row r="33">
       <c r="A33" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -7715,10 +8057,10 @@
     </row>
     <row r="34">
       <c r="A34" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D34">
         <v>2.7999999999999998</v>
@@ -7846,10 +8188,10 @@
     </row>
     <row r="35">
       <c r="A35" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D35">
         <v>6.5999999999999996</v>
@@ -7974,10 +8316,10 @@
     </row>
     <row r="36">
       <c r="A36" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D36">
         <v>6.5</v>
@@ -8105,10 +8447,10 @@
     </row>
     <row r="37">
       <c r="A37" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D37">
         <v>6.4000000000000004</v>
@@ -8236,10 +8578,10 @@
     </row>
     <row r="38">
       <c r="A38" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D38">
         <v>5.5</v>
@@ -8367,10 +8709,10 @@
     </row>
     <row r="39">
       <c r="A39" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D39">
         <v>4.5</v>
@@ -8498,10 +8840,10 @@
     </row>
     <row r="40">
       <c r="A40" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D40">
         <v>4.2000000000000002</v>
@@ -8629,10 +8971,10 @@
     </row>
     <row r="41">
       <c r="A41" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D41">
         <v>5.9000000000000004</v>
@@ -8760,10 +9102,10 @@
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D42">
         <v>7</v>
@@ -8891,10 +9233,10 @@
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B43" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D43">
         <v>3.3999999999999999</v>
@@ -9022,10 +9364,10 @@
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B44" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D44">
         <v>8.9000000000000004</v>
@@ -9153,10 +9495,10 @@
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D45">
         <v>6.2999999999999998</v>
@@ -9281,10 +9623,10 @@
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B46" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D46">
         <v>1.6000000000000001</v>
@@ -9409,10 +9751,10 @@
     </row>
     <row r="47">
       <c r="A47" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D47">
         <v>7.7999999999999998</v>
@@ -9540,10 +9882,10 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D48">
         <v>4.7999999999999998</v>
@@ -9671,10 +10013,10 @@
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B49" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D49">
         <v>5.2000000000000002</v>
@@ -9802,10 +10144,10 @@
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B50" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D50">
         <v>4.2000000000000002</v>
@@ -9933,10 +10275,10 @@
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D51">
         <v>6.2000000000000002</v>
@@ -10064,10 +10406,10 @@
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B52" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D52">
         <v>8</v>
@@ -10195,10 +10537,10 @@
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D53">
         <v>4.7000000000000002</v>
@@ -10326,10 +10668,10 @@
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D54">
         <v>4.5999999999999996</v>
@@ -10457,10 +10799,10 @@
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B55" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D55">
         <v>4.4000000000000004</v>
@@ -10588,10 +10930,10 @@
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B56" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D56">
         <v>3.6000000000000001</v>
@@ -10719,10 +11061,10 @@
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B57" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D57">
         <v>8</v>
@@ -10850,10 +11192,10 @@
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B58" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D58">
         <v>8.5</v>
@@ -10981,10 +11323,10 @@
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B59" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D59">
         <v>5.2000000000000002</v>
@@ -11112,10 +11454,10 @@
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B60" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D60">
         <v>3.3999999999999999</v>
@@ -11243,10 +11585,10 @@
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B61" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D61">
         <v>4.7000000000000002</v>
@@ -11374,10 +11716,10 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B62" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D62">
         <v>4.2000000000000002</v>
@@ -11505,10 +11847,10 @@
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B63" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D63">
         <v>8.4000000000000004</v>
@@ -11636,10 +11978,10 @@
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B64" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D64">
         <v>5.7999999999999998</v>
@@ -11767,10 +12109,10 @@
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B65" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D65">
         <v>8.3000000000000007</v>
@@ -11898,10 +12240,10 @@
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B66" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D66">
         <v>7.5</v>
@@ -12029,10 +12371,10 @@
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B67" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D67">
         <v>9.0999999999999996</v>
@@ -12160,10 +12502,10 @@
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B68" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D68">
         <v>7.9000000000000004</v>
@@ -12291,10 +12633,10 @@
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B69" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D69">
         <v>7.7000000000000002</v>
@@ -12422,10 +12764,10 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B70" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D70">
         <v>7.2000000000000002</v>
@@ -12553,10 +12895,10 @@
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B71" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D71">
         <v>7.7999999999999998</v>
@@ -12684,10 +13026,10 @@
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B72" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D72">
         <v>7.9000000000000004</v>
@@ -12815,10 +13157,10 @@
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B73" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D73">
         <v>9.0999999999999996</v>
@@ -12946,10 +13288,10 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B74" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D74">
         <v>8.4000000000000004</v>
@@ -13077,10 +13419,10 @@
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B75" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D75">
         <v>9</v>
@@ -13208,10 +13550,10 @@
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B76" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D76">
         <v>7.7000000000000002</v>
@@ -13336,10 +13678,10 @@
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B77" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D77">
         <v>6.2000000000000002</v>
@@ -13467,10 +13809,10 @@
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B78" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D78">
         <v>5.7999999999999998</v>
@@ -13598,10 +13940,10 @@
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B79" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D79">
         <v>3.3999999999999999</v>
@@ -13729,10 +14071,10 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B80" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D80">
         <v>3.6000000000000001</v>
@@ -13860,10 +14202,10 @@
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B81" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D81">
         <v>2.2999999999999998</v>
@@ -13991,10 +14333,10 @@
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B82" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D82">
         <v>3.2000000000000002</v>
@@ -14122,10 +14464,10 @@
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B83" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D83">
         <v>6.9000000000000004</v>
@@ -14250,10 +14592,10 @@
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B84" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D84">
         <v>6.4000000000000004</v>
@@ -14381,10 +14723,10 @@
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B85" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D85">
         <v>5.5</v>
@@ -14509,10 +14851,10 @@
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B86" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D86">
         <v>3.2999999999999998</v>
@@ -14640,10 +14982,10 @@
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B87" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D87">
         <v>4</v>
@@ -14771,10 +15113,10 @@
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B88" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D88">
         <v>2.7999999999999998</v>
@@ -14902,10 +15244,10 @@
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B89" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D89">
         <v>5</v>
@@ -15030,10 +15372,10 @@
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B90" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D90">
         <v>3.1000000000000001</v>
@@ -15161,10 +15503,10 @@
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B91" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D91">
         <v>5.2999999999999998</v>
@@ -15292,10 +15634,10 @@
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B92" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D92">
         <v>4.2000000000000002</v>
@@ -15420,10 +15762,10 @@
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B93" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D93">
         <v>5</v>
@@ -15551,10 +15893,10 @@
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B94" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D94">
         <v>4.2000000000000002</v>
@@ -15682,10 +16024,10 @@
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B95" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D95">
         <v>3.7000000000000002</v>
@@ -15813,10 +16155,10 @@
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B96" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D96">
         <v>4.0999999999999996</v>
@@ -15941,10 +16283,10 @@
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B97" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D97">
         <v>5.7000000000000002</v>
@@ -16072,10 +16414,10 @@
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B98" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D98">
         <v>3.5</v>
@@ -16200,10 +16542,10 @@
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B99" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D99">
         <v>3.2999999999999998</v>
@@ -16331,10 +16673,10 @@
     </row>
     <row r="100">
       <c r="A100" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B100" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D100">
         <v>5.5</v>
@@ -16462,10 +16804,10 @@
     </row>
     <row r="101">
       <c r="A101" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B101" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D101">
         <v>1.8999999999999999</v>
@@ -16590,10 +16932,10 @@
     </row>
     <row r="102">
       <c r="A102" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B102" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D102">
         <v>0.40000000000000002</v>
@@ -16721,10 +17063,10 @@
     </row>
     <row r="103">
       <c r="A103" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B103" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D103">
         <v>5.7999999999999998</v>
@@ -16852,10 +17194,10 @@
     </row>
     <row r="104">
       <c r="A104" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B104" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -16980,10 +17322,10 @@
     </row>
     <row r="105">
       <c r="A105" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B105" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D105">
         <v>6.9000000000000004</v>
@@ -17108,10 +17450,10 @@
     </row>
     <row r="106">
       <c r="A106" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B106" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D106">
         <v>3.1000000000000001</v>
@@ -17236,10 +17578,10 @@
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B107" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D107">
         <v>5.7000000000000002</v>
@@ -17367,10 +17709,10 @@
     </row>
     <row r="108">
       <c r="A108" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B108" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D108">
         <v>5.0999999999999996</v>
@@ -17498,10 +17840,10 @@
     </row>
     <row r="109">
       <c r="A109" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B109" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D109">
         <v>5.2000000000000002</v>
@@ -17629,10 +17971,10 @@
     </row>
     <row r="110">
       <c r="A110" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B110" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D110">
         <v>6.5</v>
@@ -17760,10 +18102,10 @@
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B111" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D111">
         <v>4.2999999999999998</v>
@@ -17891,10 +18233,10 @@
     </row>
     <row r="112">
       <c r="A112" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B112" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D112">
         <v>5.9000000000000004</v>
@@ -18019,10 +18361,10 @@
     </row>
     <row r="113">
       <c r="A113" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B113" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D113">
         <v>4.2999999999999998</v>
@@ -18150,10 +18492,10 @@
     </row>
     <row r="114">
       <c r="A114" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B114" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D114">
         <v>6</v>
@@ -18281,10 +18623,10 @@
     </row>
     <row r="115">
       <c r="A115" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B115" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D115">
         <v>4.2999999999999998</v>
@@ -18412,10 +18754,10 @@
     </row>
     <row r="116">
       <c r="A116" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B116" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D116">
         <v>3.2999999999999998</v>
@@ -18540,10 +18882,10 @@
     </row>
     <row r="117">
       <c r="A117" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B117" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D117">
         <v>4.5999999999999996</v>
@@ -18668,10 +19010,10 @@
     </row>
     <row r="118">
       <c r="A118" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B118" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D118">
         <v>8.6999999999999993</v>
@@ -18799,10 +19141,10 @@
     </row>
     <row r="119">
       <c r="A119" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B119" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D119">
         <v>6</v>
@@ -18930,10 +19272,10 @@
     </row>
     <row r="120">
       <c r="A120" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B120" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D120">
         <v>6.2000000000000002</v>
@@ -19061,10 +19403,10 @@
     </row>
     <row r="121">
       <c r="A121" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B121" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D121">
         <v>5.5999999999999996</v>
@@ -19192,10 +19534,10 @@
     </row>
     <row r="122">
       <c r="A122" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B122" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D122">
         <v>7.5999999999999996</v>
@@ -19323,10 +19665,10 @@
     </row>
     <row r="123">
       <c r="A123" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B123" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D123">
         <v>6.2000000000000002</v>
@@ -19454,10 +19796,10 @@
     </row>
     <row r="124">
       <c r="A124" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B124" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D124">
         <v>5.7000000000000002</v>
@@ -19582,10 +19924,10 @@
     </row>
     <row r="125">
       <c r="A125" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B125" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D125">
         <v>5.2999999999999998</v>
@@ -19713,10 +20055,10 @@
     </row>
     <row r="126">
       <c r="A126" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B126" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D126">
         <v>6.4000000000000004</v>
@@ -19844,10 +20186,10 @@
     </row>
     <row r="127">
       <c r="A127" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B127" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D127">
         <v>5.2000000000000002</v>
@@ -19975,10 +20317,10 @@
     </row>
     <row r="128">
       <c r="A128" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B128" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D128">
         <v>6</v>
@@ -20103,10 +20445,10 @@
     </row>
     <row r="129">
       <c r="A129" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B129" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D129">
         <v>5.7000000000000002</v>
@@ -20234,10 +20576,10 @@
     </row>
     <row r="130">
       <c r="A130" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B130" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D130">
         <v>6.7000000000000002</v>
@@ -20362,10 +20704,10 @@
     </row>
     <row r="131">
       <c r="A131" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B131" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D131">
         <v>8.6999999999999993</v>
@@ -20493,10 +20835,10 @@
     </row>
     <row r="132">
       <c r="A132" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B132" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D132">
         <v>5.5999999999999996</v>
@@ -20621,10 +20963,10 @@
     </row>
     <row r="133">
       <c r="A133" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B133" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D133">
         <v>8.4000000000000004</v>
@@ -20749,10 +21091,10 @@
     </row>
     <row r="134">
       <c r="A134" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B134" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D134">
         <v>5.0999999999999996</v>
@@ -20880,10 +21222,10 @@
     </row>
     <row r="135">
       <c r="A135" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B135" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D135">
         <v>6.0999999999999996</v>
@@ -21008,10 +21350,10 @@
     </row>
     <row r="136">
       <c r="A136" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B136" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D136">
         <v>8.5999999999999996</v>
@@ -21139,10 +21481,10 @@
     </row>
     <row r="137">
       <c r="A137" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B137" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D137">
         <v>8.4000000000000004</v>
@@ -21270,10 +21612,10 @@
     </row>
     <row r="138">
       <c r="A138" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B138" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D138">
         <v>5.7999999999999998</v>
@@ -21401,10 +21743,10 @@
     </row>
     <row r="139">
       <c r="A139" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B139" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D139">
         <v>6.4000000000000004</v>
@@ -21532,10 +21874,10 @@
     </row>
     <row r="140">
       <c r="A140" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B140" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D140">
         <v>6</v>
@@ -21663,10 +22005,10 @@
     </row>
     <row r="141">
       <c r="A141" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B141" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D141">
         <v>8.1999999999999993</v>
@@ -21794,10 +22136,10 @@
     </row>
     <row r="142">
       <c r="A142" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B142" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D142">
         <v>9</v>
@@ -21925,10 +22267,10 @@
     </row>
     <row r="143">
       <c r="A143" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B143" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D143">
         <v>7.5999999999999996</v>
@@ -22053,10 +22395,10 @@
     </row>
     <row r="144">
       <c r="A144" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B144" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D144">
         <v>3.3999999999999999</v>
@@ -22184,10 +22526,10 @@
     </row>
     <row r="145">
       <c r="A145" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B145" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D145">
         <v>3.8999999999999999</v>
@@ -22312,10 +22654,10 @@
     </row>
     <row r="146">
       <c r="A146" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B146" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D146">
         <v>5.7000000000000002</v>
@@ -22443,10 +22785,10 @@
     </row>
     <row r="147">
       <c r="A147" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B147" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D147">
         <v>6.9000000000000004</v>
@@ -22574,10 +22916,10 @@
     </row>
     <row r="148">
       <c r="A148" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B148" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D148">
         <v>7.5</v>
@@ -22702,10 +23044,10 @@
     </row>
     <row r="149">
       <c r="A149" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B149" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D149">
         <v>7</v>
@@ -22833,10 +23175,10 @@
     </row>
     <row r="150">
       <c r="A150" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B150" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D150">
         <v>7.2000000000000002</v>
@@ -22964,10 +23306,10 @@
     </row>
     <row r="151">
       <c r="A151" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B151" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D151">
         <v>5.2000000000000002</v>
@@ -23095,10 +23437,10 @@
     </row>
     <row r="152">
       <c r="A152" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B152" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D152">
         <v>5.9000000000000004</v>
@@ -23223,10 +23565,10 @@
     </row>
     <row r="153">
       <c r="A153" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B153" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D153">
         <v>6.5</v>
@@ -23354,10 +23696,10 @@
     </row>
     <row r="154">
       <c r="A154" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B154" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D154">
         <v>7.4000000000000004</v>
@@ -23485,10 +23827,10 @@
     </row>
     <row r="155">
       <c r="A155" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B155" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D155">
         <v>5.2999999999999998</v>
@@ -23616,10 +23958,10 @@
     </row>
     <row r="156">
       <c r="A156" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B156" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D156">
         <v>5.2000000000000002</v>
@@ -23747,10 +24089,10 @@
     </row>
     <row r="157">
       <c r="A157" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B157" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D157">
         <v>3.3999999999999999</v>
@@ -23875,10 +24217,10 @@
     </row>
     <row r="158">
       <c r="A158" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B158" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D158">
         <v>2</v>
@@ -24006,10 +24348,10 @@
     </row>
     <row r="159">
       <c r="A159" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B159" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D159">
         <v>3.7000000000000002</v>
@@ -24137,10 +24479,10 @@
     </row>
     <row r="160">
       <c r="A160" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B160" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D160">
         <v>3.5</v>
@@ -24265,10 +24607,10 @@
     </row>
     <row r="161">
       <c r="A161" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B161" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D161">
         <v>7.5</v>
@@ -24393,10 +24735,10 @@
     </row>
     <row r="162">
       <c r="A162" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B162" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D162">
         <v>3.5</v>
@@ -24524,10 +24866,10 @@
     </row>
     <row r="163">
       <c r="A163" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B163" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D163">
         <v>9.0999999999999996</v>
@@ -24655,10 +24997,10 @@
     </row>
     <row r="164">
       <c r="A164" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B164" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D164">
         <v>4.2999999999999998</v>
@@ -24786,10 +25128,10 @@
     </row>
     <row r="165">
       <c r="A165" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B165" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D165">
         <v>7</v>
@@ -24914,10 +25256,10 @@
     </row>
     <row r="166">
       <c r="A166" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B166" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D166">
         <v>2.2000000000000002</v>
@@ -25045,10 +25387,10 @@
     </row>
     <row r="167">
       <c r="A167" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B167" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D167">
         <v>8.8000000000000007</v>
@@ -25176,10 +25518,10 @@
     </row>
     <row r="168">
       <c r="A168" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B168" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D168">
         <v>7.2999999999999998</v>
@@ -25307,10 +25649,10 @@
     </row>
     <row r="169">
       <c r="A169" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B169" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D169">
         <v>7.7999999999999998</v>
@@ -25438,10 +25780,10 @@
     </row>
     <row r="170">
       <c r="A170" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B170" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D170">
         <v>4</v>
@@ -25569,10 +25911,10 @@
     </row>
     <row r="171">
       <c r="A171" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B171" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D171">
         <v>5.7999999999999998</v>
@@ -25700,10 +26042,10 @@
     </row>
     <row r="172">
       <c r="A172" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B172" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D172">
         <v>9.3000000000000007</v>
@@ -25831,10 +26173,10 @@
     </row>
     <row r="173">
       <c r="A173" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B173" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D173">
         <v>4.2000000000000002</v>
@@ -25962,10 +26304,10 @@
     </row>
     <row r="174">
       <c r="A174" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B174" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D174">
         <v>5.0999999999999996</v>
@@ -26090,10 +26432,10 @@
     </row>
     <row r="175">
       <c r="A175" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B175" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D175">
         <v>7.2999999999999998</v>
@@ -26221,10 +26563,10 @@
     </row>
     <row r="176">
       <c r="A176" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B176" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D176">
         <v>5.5999999999999996</v>
@@ -26352,10 +26694,10 @@
     </row>
     <row r="177">
       <c r="A177" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B177" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D177">
         <v>4.2000000000000002</v>
@@ -26483,10 +26825,10 @@
     </row>
     <row r="178">
       <c r="A178" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B178" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D178">
         <v>5.5999999999999996</v>
@@ -26614,10 +26956,10 @@
     </row>
     <row r="179">
       <c r="A179" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B179" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D179">
         <v>7.9000000000000004</v>
@@ -26742,10 +27084,10 @@
     </row>
     <row r="180">
       <c r="A180" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B180" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D180">
         <v>7.9000000000000004</v>
@@ -26870,10 +27212,10 @@
     </row>
     <row r="181">
       <c r="A181" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B181" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D181">
         <v>4.7000000000000002</v>
@@ -27001,10 +27343,10 @@
     </row>
     <row r="182">
       <c r="A182" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B182" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D182">
         <v>5.2999999999999998</v>
@@ -27132,10 +27474,10 @@
     </row>
     <row r="183">
       <c r="A183" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B183" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D183">
         <v>5.4000000000000004</v>
@@ -27263,10 +27605,10 @@
     </row>
     <row r="184">
       <c r="A184" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B184" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D184">
         <v>5.7000000000000002</v>
@@ -27394,10 +27736,10 @@
     </row>
     <row r="185">
       <c r="A185" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B185" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D185">
         <v>7.4000000000000004</v>
@@ -27522,10 +27864,10 @@
     </row>
     <row r="186">
       <c r="A186" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B186" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D186">
         <v>5.2000000000000002</v>
@@ -27653,10 +27995,10 @@
     </row>
     <row r="187">
       <c r="A187" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B187" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D187">
         <v>6</v>
@@ -27784,10 +28126,10 @@
     </row>
     <row r="188">
       <c r="A188" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B188" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D188">
         <v>3.6000000000000001</v>
@@ -27915,10 +28257,10 @@
     </row>
     <row r="189">
       <c r="A189" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B189" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D189">
         <v>5.5999999999999996</v>
@@ -28043,10 +28385,10 @@
     </row>
     <row r="190">
       <c r="A190" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B190" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D190">
         <v>6</v>
@@ -28174,10 +28516,10 @@
     </row>
     <row r="191">
       <c r="A191" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B191" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D191">
         <v>7.4000000000000004</v>
@@ -28305,10 +28647,10 @@
     </row>
     <row r="192">
       <c r="A192" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B192" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D192">
         <v>6.7999999999999998</v>
@@ -28436,10 +28778,10 @@
     </row>
     <row r="193">
       <c r="A193" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B193" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D193">
         <v>5.4000000000000004</v>
@@ -28567,10 +28909,10 @@
     </row>
     <row r="194">
       <c r="A194" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B194" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D194">
         <v>3.7999999999999998</v>
@@ -28698,10 +29040,10 @@
     </row>
     <row r="195">
       <c r="A195" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B195" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D195">
         <v>5.2999999999999998</v>
@@ -28826,10 +29168,10 @@
     </row>
     <row r="196">
       <c r="A196" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B196" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D196">
         <v>4.5</v>
@@ -28954,10 +29296,10 @@
     </row>
     <row r="197">
       <c r="A197" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B197" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D197">
         <v>7</v>
@@ -29085,10 +29427,10 @@
     </row>
     <row r="198">
       <c r="A198" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B198" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D198">
         <v>7.5999999999999996</v>
@@ -29213,10 +29555,10 @@
     </row>
     <row r="199">
       <c r="A199" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B199" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D199">
         <v>5.2999999999999998</v>
@@ -29344,10 +29686,10 @@
     </row>
     <row r="200">
       <c r="A200" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B200" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D200">
         <v>7.5</v>
@@ -29475,10 +29817,10 @@
     </row>
     <row r="201">
       <c r="A201" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B201" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D201">
         <v>5.5999999999999996</v>
@@ -29606,10 +29948,10 @@
     </row>
     <row r="202">
       <c r="A202" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B202" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D202">
         <v>9.0999999999999996</v>
@@ -29737,10 +30079,10 @@
     </row>
     <row r="203">
       <c r="A203" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B203" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D203">
         <v>9.3000000000000007</v>
@@ -29868,10 +30210,10 @@
     </row>
     <row r="204">
       <c r="A204" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B204" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D204">
         <v>6.5</v>
@@ -29999,10 +30341,10 @@
     </row>
     <row r="205">
       <c r="A205" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B205" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D205">
         <v>9.3000000000000007</v>
@@ -30130,10 +30472,10 @@
     </row>
     <row r="206">
       <c r="A206" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B206" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D206">
         <v>3.7000000000000002</v>
@@ -30261,10 +30603,10 @@
     </row>
     <row r="207">
       <c r="A207" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B207" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D207">
         <v>8.8000000000000007</v>
@@ -30392,10 +30734,10 @@
     </row>
     <row r="208">
       <c r="A208" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B208" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D208">
         <v>7.2000000000000002</v>
@@ -30523,10 +30865,10 @@
     </row>
     <row r="209">
       <c r="A209" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B209" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D209">
         <v>7</v>
@@ -30654,10 +30996,10 @@
     </row>
     <row r="210">
       <c r="A210" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B210" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D210">
         <v>8</v>
@@ -30785,10 +31127,10 @@
     </row>
     <row r="211">
       <c r="A211" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B211" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D211">
         <v>5.2000000000000002</v>
@@ -30913,10 +31255,10 @@
     </row>
     <row r="212">
       <c r="A212" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B212" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D212">
         <v>5.9000000000000004</v>
@@ -31044,10 +31386,10 @@
     </row>
     <row r="213">
       <c r="A213" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B213" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D213">
         <v>8.3000000000000007</v>
@@ -31175,10 +31517,10 @@
     </row>
     <row r="214">
       <c r="A214" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B214" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D214">
         <v>7</v>
@@ -31306,10 +31648,10 @@
     </row>
     <row r="215">
       <c r="A215" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B215" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D215">
         <v>6.2999999999999998</v>
@@ -31434,10 +31776,10 @@
     </row>
     <row r="216">
       <c r="A216" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B216" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D216">
         <v>5.2999999999999998</v>
@@ -31565,10 +31907,10 @@
     </row>
     <row r="217">
       <c r="A217" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B217" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D217">
         <v>6.2999999999999998</v>
@@ -31693,10 +32035,10 @@
     </row>
     <row r="218">
       <c r="A218" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B218" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D218">
         <v>7</v>
@@ -31824,10 +32166,10 @@
     </row>
     <row r="219">
       <c r="A219" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B219" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="D219">
         <v>4</v>
@@ -31952,10 +32294,10 @@
     </row>
     <row r="220">
       <c r="A220" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B220" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D220">
         <v>5.9000000000000004</v>
@@ -32080,10 +32422,10 @@
     </row>
     <row r="221">
       <c r="A221" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B221" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D221">
         <v>8.1999999999999993</v>
@@ -32211,10 +32553,10 @@
     </row>
     <row r="222">
       <c r="A222" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B222" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D222">
         <v>8.0999999999999996</v>
@@ -32339,10 +32681,10 @@
     </row>
     <row r="223">
       <c r="A223" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B223" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D223">
         <v>5.9000000000000004</v>
@@ -32467,10 +32809,10 @@
     </row>
     <row r="224">
       <c r="A224" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B224" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D224">
         <v>7.2000000000000002</v>
@@ -32598,10 +32940,10 @@
     </row>
     <row r="225">
       <c r="A225" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B225" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D225">
         <v>6.7000000000000002</v>
@@ -32729,10 +33071,10 @@
     </row>
     <row r="226">
       <c r="A226" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B226" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D226">
         <v>6.9000000000000004</v>
@@ -32860,10 +33202,10 @@
     </row>
     <row r="227">
       <c r="A227" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B227" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D227">
         <v>6.2999999999999998</v>
@@ -32991,10 +33333,10 @@
     </row>
     <row r="228">
       <c r="A228" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B228" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D228">
         <v>8.0999999999999996</v>
@@ -33122,10 +33464,10 @@
     </row>
     <row r="229">
       <c r="A229" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B229" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D229">
         <v>4.5</v>
@@ -33250,10 +33592,10 @@
     </row>
     <row r="230">
       <c r="A230" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B230" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D230">
         <v>2.3999999999999999</v>
@@ -33378,10 +33720,10 @@
     </row>
     <row r="231">
       <c r="A231" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B231" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D231">
         <v>7.5999999999999996</v>
@@ -33506,10 +33848,10 @@
     </row>
     <row r="232">
       <c r="A232" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B232" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D232">
         <v>6.9000000000000004</v>
@@ -33637,10 +33979,10 @@
     </row>
     <row r="233">
       <c r="A233" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B233" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D233">
         <v>4.2999999999999998</v>
@@ -33768,10 +34110,10 @@
     </row>
     <row r="234">
       <c r="A234" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B234" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D234">
         <v>5.9000000000000004</v>
@@ -33899,10 +34241,10 @@
     </row>
     <row r="235">
       <c r="A235" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B235" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D235">
         <v>6.7000000000000002</v>
@@ -34030,10 +34372,10 @@
     </row>
     <row r="236">
       <c r="A236" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B236" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D236">
         <v>5.9000000000000004</v>
@@ -34161,10 +34503,10 @@
     </row>
     <row r="237">
       <c r="A237" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B237" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D237">
         <v>5</v>
@@ -34292,10 +34634,10 @@
     </row>
     <row r="238">
       <c r="A238" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B238" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D238">
         <v>4</v>
@@ -34423,10 +34765,10 @@
     </row>
     <row r="239">
       <c r="A239" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B239" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D239">
         <v>4.2999999999999998</v>
@@ -34551,10 +34893,10 @@
     </row>
     <row r="240">
       <c r="A240" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B240" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D240">
         <v>6.2999999999999998</v>
@@ -34682,10 +35024,10 @@
     </row>
     <row r="241">
       <c r="A241" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B241" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D241">
         <v>4.9000000000000004</v>
@@ -34810,10 +35152,10 @@
     </row>
     <row r="242">
       <c r="A242" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B242" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D242">
         <v>3.7999999999999998</v>
@@ -34938,10 +35280,10 @@
     </row>
     <row r="243">
       <c r="A243" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B243" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D243">
         <v>3.1000000000000001</v>
@@ -35066,10 +35408,10 @@
     </row>
     <row r="244">
       <c r="A244" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B244" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D244">
         <v>4.5</v>
@@ -35197,10 +35539,10 @@
     </row>
     <row r="245">
       <c r="A245" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B245" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D245">
         <v>5.2999999999999998</v>
@@ -35325,10 +35667,10 @@
     </row>
     <row r="246">
       <c r="A246" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B246" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D246">
         <v>5.9000000000000004</v>
@@ -35456,10 +35798,10 @@
     </row>
     <row r="247">
       <c r="A247" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B247" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D247">
         <v>4.9000000000000004</v>
@@ -35587,10 +35929,10 @@
     </row>
     <row r="248">
       <c r="A248" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B248" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D248">
         <v>3</v>
@@ -35715,10 +36057,10 @@
     </row>
     <row r="249">
       <c r="A249" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B249" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D249">
         <v>3.7999999999999998</v>
@@ -35846,10 +36188,10 @@
     </row>
     <row r="250">
       <c r="A250" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B250" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D250">
         <v>4.0999999999999996</v>
@@ -35977,10 +36319,10 @@
     </row>
     <row r="251">
       <c r="A251" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B251" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D251">
         <v>3.1000000000000001</v>
@@ -36105,10 +36447,10 @@
     </row>
     <row r="252">
       <c r="A252" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B252" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D252">
         <v>2.2999999999999998</v>
@@ -36236,10 +36578,10 @@
     </row>
     <row r="253">
       <c r="A253" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B253" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D253">
         <v>4.4000000000000004</v>
@@ -36367,10 +36709,10 @@
     </row>
     <row r="254">
       <c r="A254" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B254" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D254">
         <v>6.7999999999999998</v>
@@ -36498,10 +36840,10 @@
     </row>
     <row r="255">
       <c r="A255" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B255" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D255">
         <v>1</v>
@@ -36629,10 +36971,10 @@
     </row>
     <row r="256">
       <c r="A256" s="7" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B256" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D256">
         <v>4.9000000000000004</v>
@@ -36760,10 +37102,10 @@
     </row>
     <row r="257">
       <c r="A257" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B257" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D257">
         <v>3.5</v>
@@ -36891,10 +37233,10 @@
     </row>
     <row r="258">
       <c r="A258" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B258" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D258">
         <v>5.7999999999999998</v>
@@ -37022,10 +37364,10 @@
     </row>
     <row r="259">
       <c r="A259" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B259" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D259">
         <v>4.2000000000000002</v>
@@ -37153,10 +37495,10 @@
     </row>
     <row r="260">
       <c r="A260" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B260" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D260">
         <v>4.2000000000000002</v>
@@ -37284,10 +37626,10 @@
     </row>
     <row r="261">
       <c r="A261" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B261" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D261">
         <v>1.3</v>
@@ -37412,10 +37754,10 @@
     </row>
     <row r="262">
       <c r="A262" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B262" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D262">
         <v>4</v>
@@ -37540,10 +37882,10 @@
     </row>
     <row r="263">
       <c r="A263" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B263" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="D263">
         <v>4.5999999999999996</v>
@@ -37671,10 +38013,10 @@
     </row>
     <row r="264">
       <c r="A264" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B264" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D264">
         <v>8.0999999999999996</v>
@@ -37802,10 +38144,10 @@
     </row>
     <row r="265">
       <c r="A265" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B265" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D265">
         <v>6.9000000000000004</v>
@@ -37933,10 +38275,10 @@
     </row>
     <row r="266">
       <c r="A266" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B266" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D266">
         <v>5.5999999999999996</v>
@@ -38064,10 +38406,10 @@
     </row>
     <row r="267">
       <c r="A267" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B267" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D267">
         <v>8</v>
@@ -38195,10 +38537,10 @@
     </row>
     <row r="268">
       <c r="A268" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B268" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D268">
         <v>5.4000000000000004</v>
@@ -38323,10 +38665,10 @@
     </row>
     <row r="269">
       <c r="A269" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B269" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D269">
         <v>5.7000000000000002</v>
@@ -38451,10 +38793,10 @@
     </row>
     <row r="270">
       <c r="A270" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B270" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D270">
         <v>7.2000000000000002</v>
@@ -38579,10 +38921,10 @@
     </row>
     <row r="271">
       <c r="A271" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B271" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D271">
         <v>4.5</v>
@@ -38707,10 +39049,10 @@
     </row>
     <row r="272">
       <c r="A272" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B272" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D272">
         <v>5.4000000000000004</v>
@@ -38838,10 +39180,10 @@
     </row>
     <row r="273">
       <c r="A273" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B273" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D273">
         <v>5.9000000000000004</v>
@@ -38969,10 +39311,10 @@
     </row>
     <row r="274">
       <c r="A274" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B274" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="D274">
         <v>6.5999999999999996</v>
@@ -39097,10 +39439,10 @@
     </row>
     <row r="275">
       <c r="A275" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B275" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D275">
         <v>3.7000000000000002</v>
@@ -39228,10 +39570,10 @@
     </row>
     <row r="276">
       <c r="A276" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B276" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D276">
         <v>8.0999999999999996</v>
@@ -39359,10 +39701,10 @@
     </row>
     <row r="277">
       <c r="A277" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B277" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D277">
         <v>4.5</v>
@@ -39487,10 +39829,10 @@
     </row>
     <row r="278">
       <c r="A278" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B278" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D278">
         <v>2.5</v>
@@ -39618,10 +39960,10 @@
     </row>
     <row r="279">
       <c r="A279" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B279" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D279">
         <v>2.7000000000000002</v>
@@ -39746,10 +40088,10 @@
     </row>
     <row r="280">
       <c r="A280" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B280" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D280">
         <v>5.2000000000000002</v>
@@ -39877,10 +40219,10 @@
     </row>
     <row r="281">
       <c r="A281" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B281" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D281">
         <v>4.5</v>
@@ -40005,10 +40347,10 @@
     </row>
     <row r="282">
       <c r="A282" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B282" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D282">
         <v>7.7999999999999998</v>
@@ -40136,10 +40478,10 @@
     </row>
     <row r="283">
       <c r="A283" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B283" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D283">
         <v>2.7000000000000002</v>
@@ -40267,10 +40609,10 @@
     </row>
     <row r="284">
       <c r="A284" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B284" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D284">
         <v>3.7000000000000002</v>
@@ -40398,10 +40740,10 @@
     </row>
     <row r="285">
       <c r="A285" s="7" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B285" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D285">
         <v>5.9000000000000004</v>
@@ -40529,10 +40871,10 @@
     </row>
     <row r="286">
       <c r="A286" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B286" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D286">
         <v>3.1000000000000001</v>
@@ -40660,10 +41002,10 @@
     </row>
     <row r="287">
       <c r="A287" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B287" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D287">
         <v>3</v>
@@ -40791,10 +41133,10 @@
     </row>
     <row r="288">
       <c r="A288" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B288" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D288">
         <v>3.5</v>
@@ -40922,10 +41264,10 @@
     </row>
     <row r="289">
       <c r="A289" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B289" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D289">
         <v>3.7999999999999998</v>
@@ -41053,10 +41395,10 @@
     </row>
     <row r="290">
       <c r="A290" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B290" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D290">
         <v>3.7000000000000002</v>
@@ -41184,10 +41526,10 @@
     </row>
     <row r="291">
       <c r="A291" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B291" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D291">
         <v>5.7000000000000002</v>
@@ -41315,10 +41657,10 @@
     </row>
     <row r="292">
       <c r="A292" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B292" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D292">
         <v>2.1000000000000001</v>
@@ -41446,10 +41788,10 @@
     </row>
     <row r="293">
       <c r="A293" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B293" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D293">
         <v>3.8999999999999999</v>
@@ -41577,10 +41919,10 @@
     </row>
     <row r="294">
       <c r="A294" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B294" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D294">
         <v>2.2000000000000002</v>
@@ -41708,10 +42050,10 @@
     </row>
     <row r="295">
       <c r="A295" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B295" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D295">
         <v>7.2999999999999998</v>
@@ -41839,10 +42181,10 @@
     </row>
     <row r="296">
       <c r="A296" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B296" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D296">
         <v>7.2000000000000002</v>
@@ -41970,10 +42312,10 @@
     </row>
     <row r="297">
       <c r="A297" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B297" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D297">
         <v>7.2000000000000002</v>
@@ -42101,10 +42443,10 @@
     </row>
     <row r="298">
       <c r="A298" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B298" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D298">
         <v>6.5999999999999996</v>
@@ -42232,10 +42574,10 @@
     </row>
     <row r="299">
       <c r="A299" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B299" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="D299">
         <v>6.5</v>
@@ -42363,10 +42705,10 @@
     </row>
     <row r="300">
       <c r="A300" s="7" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B300" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D300">
         <v>2.7000000000000002</v>
@@ -42494,10 +42836,10 @@
     </row>
     <row r="301">
       <c r="A301" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B301" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D301">
         <v>1.6000000000000001</v>
@@ -42625,10 +42967,10 @@
     </row>
     <row r="302">
       <c r="A302" s="7" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B302" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D302">
         <v>1.6000000000000001</v>
@@ -42756,10 +43098,10 @@
     </row>
     <row r="303">
       <c r="A303" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B303" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D303">
         <v>0.69999999999999996</v>
@@ -42887,10 +43229,10 @@
     </row>
     <row r="304">
       <c r="A304" s="7" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B304" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D304">
         <v>1.5</v>
@@ -43018,10 +43360,10 @@
     </row>
     <row r="305">
       <c r="A305" s="7" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B305" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D305">
         <v>1.5</v>
@@ -43146,10 +43488,10 @@
     </row>
     <row r="306">
       <c r="A306" s="7" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B306" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D306">
         <v>2</v>
@@ -43277,10 +43619,10 @@
     </row>
     <row r="307">
       <c r="A307" s="7" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B307" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D307">
         <v>1.7</v>
@@ -43408,10 +43750,10 @@
     </row>
     <row r="308">
       <c r="A308" s="7" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B308" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="D308">
         <v>0.59999999999999998</v>
@@ -43539,10 +43881,10 @@
     </row>
     <row r="309">
       <c r="A309" s="7" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B309" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="D309">
         <v>2</v>
@@ -43667,10 +44009,10 @@
     </row>
     <row r="310">
       <c r="A310" s="7" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B310" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D310">
         <v>2.7000000000000002</v>
@@ -43795,10 +44137,10 @@
     </row>
     <row r="311">
       <c r="A311" s="7" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B311" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D311">
         <v>6.7000000000000002</v>
@@ -43926,10 +44268,10 @@
     </row>
     <row r="312">
       <c r="A312" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B312" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D312">
         <v>2.8999999999999999</v>
@@ -44054,10 +44396,10 @@
     </row>
     <row r="313">
       <c r="A313" s="7" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B313" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D313">
         <v>2.5</v>
@@ -44182,10 +44524,10 @@
     </row>
     <row r="314">
       <c r="A314" s="7" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B314" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="D314">
         <v>1.3999999999999999</v>
@@ -44313,10 +44655,10 @@
     </row>
     <row r="315">
       <c r="A315" s="7" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B315" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D315">
         <v>3.8999999999999999</v>
@@ -44444,10 +44786,10 @@
     </row>
     <row r="316">
       <c r="A316" s="7" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B316" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D316">
         <v>3</v>
@@ -44572,10 +44914,10 @@
     </row>
     <row r="317">
       <c r="A317" s="7" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B317" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D317">
         <v>3.2999999999999998</v>
@@ -44703,10 +45045,10 @@
     </row>
     <row r="318">
       <c r="A318" s="7" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B318" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D318">
         <v>6.5</v>
@@ -44834,10 +45176,10 @@
     </row>
     <row r="319">
       <c r="A319" s="7" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B319" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D319">
         <v>3.3999999999999999</v>
@@ -44965,10 +45307,10 @@
     </row>
     <row r="320">
       <c r="A320" s="7" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B320" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D320">
         <v>5.5999999999999996</v>
@@ -45093,10 +45435,10 @@
     </row>
     <row r="321">
       <c r="A321" s="7" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B321" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="D321">
         <v>1.8</v>
@@ -45224,10 +45566,10 @@
     </row>
     <row r="322">
       <c r="A322" s="7" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B322" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="D322">
         <v>7.2000000000000002</v>
@@ -45355,10 +45697,10 @@
     </row>
     <row r="323">
       <c r="A323" s="7" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B323" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D323">
         <v>2.8999999999999999</v>
@@ -45486,10 +45828,10 @@
     </row>
     <row r="324">
       <c r="A324" s="7" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B324" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D324">
         <v>3.2000000000000002</v>
@@ -45614,10 +45956,10 @@
     </row>
     <row r="325">
       <c r="A325" s="7" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B325" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D325">
         <v>6.4000000000000004</v>
@@ -45745,10 +46087,10 @@
     </row>
     <row r="326">
       <c r="A326" s="7" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B326" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D326">
         <v>6.5</v>
@@ -45876,10 +46218,10 @@
     </row>
     <row r="327">
       <c r="A327" s="7" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B327" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="D327">
         <v>3</v>
@@ -46007,10 +46349,10 @@
     </row>
     <row r="328">
       <c r="A328" s="7" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B328" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D328">
         <v>5.7999999999999998</v>
@@ -46138,10 +46480,10 @@
     </row>
     <row r="329">
       <c r="A329" s="7" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B329" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D329">
         <v>5.0999999999999996</v>
@@ -46269,10 +46611,10 @@
     </row>
     <row r="330">
       <c r="A330" s="7" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B330" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D330">
         <v>3.2000000000000002</v>
@@ -46400,10 +46742,10 @@
     </row>
     <row r="331">
       <c r="A331" s="7" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B331" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D331">
         <v>2.7999999999999998</v>
@@ -46531,10 +46873,10 @@
     </row>
     <row r="332">
       <c r="A332" s="7" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B332" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D332">
         <v>2.5</v>
@@ -46662,10 +47004,10 @@
     </row>
     <row r="333">
       <c r="A333" s="7" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B333" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D333">
         <v>3.2000000000000002</v>
@@ -46793,10 +47135,10 @@
     </row>
     <row r="334">
       <c r="A334" s="7" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B334" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D334">
         <v>2.7999999999999998</v>
@@ -46924,10 +47266,10 @@
     </row>
     <row r="335">
       <c r="A335" s="7" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B335" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D335">
         <v>2.6000000000000001</v>
@@ -47055,10 +47397,10 @@
     </row>
     <row r="336">
       <c r="A336" s="7" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B336" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D336">
         <v>3.2000000000000002</v>
@@ -47186,10 +47528,10 @@
     </row>
     <row r="337">
       <c r="A337" s="7" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B337" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D337">
         <v>3.2999999999999998</v>
@@ -47314,10 +47656,10 @@
     </row>
     <row r="338">
       <c r="A338" s="7" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B338" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D338">
         <v>2.1000000000000001</v>
@@ -47442,10 +47784,10 @@
     </row>
     <row r="339">
       <c r="A339" s="7" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B339" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D339">
         <v>1.7</v>
@@ -47573,10 +47915,10 @@
     </row>
     <row r="340">
       <c r="A340" s="7" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B340" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D340">
         <v>3.6000000000000001</v>
@@ -47704,10 +48046,10 @@
     </row>
     <row r="341">
       <c r="A341" s="7" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B341" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D341">
         <v>1.8999999999999999</v>
@@ -47835,10 +48177,10 @@
     </row>
     <row r="342">
       <c r="A342" s="7" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B342" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D342">
         <v>7.4000000000000004</v>
@@ -47966,10 +48308,10 @@
     </row>
     <row r="343">
       <c r="A343" s="7" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B343" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="D343">
         <v>4.7000000000000002</v>
@@ -48094,10 +48436,10 @@
     </row>
     <row r="344">
       <c r="A344" s="7" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B344" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D344">
         <v>2.2999999999999998</v>
@@ -48225,10 +48567,10 @@
     </row>
     <row r="345">
       <c r="A345" s="7" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B345" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="D345">
         <v>2.2000000000000002</v>
@@ -48363,7 +48705,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{009C0091-000E-4585-B5B5-00C6007A00FA}">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{00970062-00A2-46B9-B509-002400E800FE}">
             <xm:f>-1</xm:f>
             <x14:dxf>
               <font>
@@ -48394,48 +48736,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.28125"/>
-    <col customWidth="1" min="2" max="2" width="13.140625"/>
+    <col customWidth="1" min="2" max="2" width="15.28125"/>
+    <col customWidth="1" min="3" max="3" width="32.7109375"/>
+    <col customWidth="1" min="4" max="4" width="10.28125"/>
+    <col customWidth="1" min="5" max="5" width="27.8515625"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>806</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D2" s="10">
         <v>2</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F2" s="10">
         <v>1</v>
@@ -48445,43 +48789,43 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>806</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>808</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="E3" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="F3" s="8">
         <v>1</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>806</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D4" s="8">
         <v>2</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F4" s="8">
         <v>1</v>
@@ -48492,19 +48836,19 @@
     </row>
     <row r="5">
       <c r="A5" s="14" t="s">
+        <v>808</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>806</v>
-      </c>
       <c r="C5" s="15" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D5" s="15">
         <v>2</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F5" s="15">
         <v>1</v>
@@ -48514,43 +48858,43 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>811</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>808</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="E6" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="F6" s="8">
         <v>1</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>811</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D7" s="8">
         <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
@@ -48560,20 +48904,20 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>811</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D8" s="8">
         <v>2</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F8" s="8">
         <v>1</v>
@@ -48583,20 +48927,20 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>811</v>
-      </c>
       <c r="C9" s="15" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D9" s="15">
         <v>2</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F9" s="15">
         <v>1</v>
@@ -48607,10 +48951,10 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>815</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>11</v>
@@ -48619,7 +48963,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F10" s="8">
         <v>1</v>
@@ -48630,10 +48974,10 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>815</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>12</v>
@@ -48642,7 +48986,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F11" s="8">
         <v>1</v>
@@ -48653,10 +48997,10 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>815</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>15</v>
@@ -48665,7 +49009,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F12" s="8">
         <v>1</v>
@@ -48676,19 +49020,19 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>815</v>
-      </c>
       <c r="C13" s="8" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F13" s="8">
         <v>1</v>
@@ -48699,10 +49043,10 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>815</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>14</v>
@@ -48711,7 +49055,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>
@@ -48722,91 +49066,91 @@
     </row>
     <row r="15">
       <c r="A15" s="17" t="s">
-        <v>806</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>817</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>806</v>
-      </c>
-      <c r="D15" s="17">
+        <v>819</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="D15" s="18">
         <v>3</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="F15" s="17">
+      <c r="E15" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="F15" s="18">
         <v>1</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="17" t="s">
-        <v>811</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>817</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>818</v>
-      </c>
-      <c r="D16" s="17">
+      <c r="A16" s="20" t="s">
+        <v>819</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>820</v>
+      </c>
+      <c r="D16" s="21">
         <v>3</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="F16" s="17">
+      <c r="E16" s="21" t="s">
+        <v>810</v>
+      </c>
+      <c r="F16" s="21">
         <v>1</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="17" t="s">
-        <v>815</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="23" t="s">
+        <v>819</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>817</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>819</v>
-      </c>
-      <c r="D17" s="17">
+      <c r="C17" s="24" t="s">
+        <v>821</v>
+      </c>
+      <c r="D17" s="24">
         <v>3</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="F17" s="17">
+      <c r="E17" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="F17" s="24">
         <v>1</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="18" t="s">
-        <v>817</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18" t="s">
-        <v>820</v>
-      </c>
-      <c r="D18" s="18">
+      <c r="A18" s="26"/>
+      <c r="B18" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>822</v>
+      </c>
+      <c r="D18" s="27">
         <v>4</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>808</v>
-      </c>
-      <c r="F18" s="18">
+      <c r="E18" s="27" t="s">
+        <v>810</v>
+      </c>
+      <c r="F18" s="27">
         <v>1</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="28">
         <v>1</v>
       </c>
     </row>
@@ -48817,4 +49161,2290 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="25.57421875"/>
+    <col customWidth="1" min="2" max="2" style="29" width="59.140625"/>
+    <col customWidth="1" min="3" max="3" width="25.57421875"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>824</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="2" ht="84.450000000000003">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" ht="84.450000000000003">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" ht="85.5">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" ht="70.099999999999994">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="107.75">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" ht="75.950000000000003">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" ht="94.5">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" ht="85.5">
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" ht="99.799999999999997">
+      <c r="A10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" ht="86.049999999999997">
+      <c r="A11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" ht="77">
+      <c r="A12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" ht="108.3">
+      <c r="A13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" ht="84.950000000000003">
+      <c r="A14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" ht="100.34999999999999">
+      <c r="A15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" ht="52.600000000000001">
+      <c r="A16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" ht="78.049999999999997">
+      <c r="A17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" ht="75.950000000000003">
+      <c r="A18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" ht="69.599999999999994">
+      <c r="A19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" ht="68">
+      <c r="A20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" ht="68">
+      <c r="A21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" ht="75.950000000000003">
+      <c r="A22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" ht="91.849999999999994">
+      <c r="A23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" ht="68">
+      <c r="A24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" ht="68">
+      <c r="A25" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" ht="62.700000000000003">
+      <c r="A26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" ht="76.5">
+      <c r="A27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" ht="92.400000000000006">
+      <c r="A28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" ht="61.649999999999999">
+      <c r="A29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" ht="76.5">
+      <c r="A30" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" ht="77">
+      <c r="A31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" ht="93.450000000000003">
+      <c r="A32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" ht="84.950000000000003">
+      <c r="A33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" ht="84.450000000000003">
+      <c r="A34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" ht="76.5">
+      <c r="A35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" ht="83.900000000000006">
+      <c r="A36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" ht="91.349999999999994">
+      <c r="A37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" ht="84.450000000000003">
+      <c r="A38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" ht="91.849999999999994">
+      <c r="A39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" ht="84.950000000000003">
+      <c r="A40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" ht="84.450000000000003">
+      <c r="A41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" ht="84.450000000000003">
+      <c r="A42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" ht="76.5">
+      <c r="A43" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" ht="76.5">
+      <c r="A44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" ht="69.049999999999997">
+      <c r="A45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" ht="85.5">
+      <c r="A46" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" ht="101.40000000000001">
+      <c r="A47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" ht="101.95">
+      <c r="A48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" ht="92.900000000000006">
+      <c r="A49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" ht="91.849999999999994">
+      <c r="A50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" ht="76.5">
+      <c r="A51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" ht="84.950000000000003">
+      <c r="A52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" ht="45.700000000000003">
+      <c r="A53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" ht="77">
+      <c r="A54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" ht="91.849999999999994">
+      <c r="A55" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58"/>
+      <c r="B58" s="8"/>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="B60" s="8"/>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="B62" s="8"/>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="B63" s="8"/>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="B64" s="8"/>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="B66" s="8"/>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="B67" s="8"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C67"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.140625"/>
+    <col customWidth="1" min="2" max="2" width="30.7109375"/>
+    <col customWidth="1" min="3" max="3" width="27.421875"/>
+    <col customWidth="1" min="4" max="4" width="17.57421875"/>
+    <col customWidth="1" min="5" max="5" width="23.57421875"/>
+    <col customWidth="1" min="8" max="8" width="17.7109375"/>
+    <col customWidth="1" min="9" max="9" width="18.28125"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="32" t="s">
+        <v>808</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>829</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3" s="32" t="s">
+        <v>808</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>809</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="32" t="s">
+        <v>808</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>830</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="32" t="s">
+        <v>808</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="32" t="s">
+        <v>813</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>831</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="32" t="s">
+        <v>813</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="32" t="s">
+        <v>813</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>832</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="32" t="s">
+        <v>813</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>833</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>834</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="C15" s="35"/>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="C16" s="35"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="C17" s="35"/>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="C18" s="35"/>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="C19" s="35"/>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="C20" s="35"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="24.8515625"/>
+    <col customWidth="1" min="5" max="5" width="173.7109375"/>
+    <col customWidth="1" min="6" max="6" width="32.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="36" t="s">
+        <v>835</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>836</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>837</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>838</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>839</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>840</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>841</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>842</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>843</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>844</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="F3" s="37">
+        <v>-0.34137529137528955</v>
+      </c>
+      <c r="G3" s="37">
+        <v>0.16656793099411887</v>
+      </c>
+      <c r="H3" s="38">
+        <v>-2.0494658806042487</v>
+      </c>
+      <c r="I3" s="39">
+        <v>0.040416580881404623</v>
+      </c>
+      <c r="J3" s="38">
+        <v>-0.66784243710311553</v>
+      </c>
+      <c r="K3" s="39">
+        <v>-0.014908145647463622</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>851</v>
+      </c>
+      <c r="F4" s="40">
+        <v>-0.86923076923077203</v>
+      </c>
+      <c r="G4" s="38">
+        <v>0.25090392333447992</v>
+      </c>
+      <c r="H4" s="40">
+        <v>-3.4643968802034268</v>
+      </c>
+      <c r="I4" s="39">
+        <v>0.00053142184081991263</v>
+      </c>
+      <c r="J4" s="38">
+        <v>-1.3609934225461515</v>
+      </c>
+      <c r="K4" s="37">
+        <v>-0.37746811591539264</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="F6" s="38">
+        <v>-0.26165501165501309</v>
+      </c>
+      <c r="G6" s="38">
+        <v>0.1131237699106126</v>
+      </c>
+      <c r="H6" s="40">
+        <v>-2.312997629603097</v>
+      </c>
+      <c r="I6" s="39">
+        <v>0.020722769467606057</v>
+      </c>
+      <c r="J6" s="38">
+        <v>-0.48337352647520959</v>
+      </c>
+      <c r="K6" s="37">
+        <v>-0.039936496834816593</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>854</v>
+      </c>
+      <c r="F7" s="38">
+        <v>-0.4860139860139886</v>
+      </c>
+      <c r="G7" s="37">
+        <v>0.16052922940322395</v>
+      </c>
+      <c r="H7" s="40">
+        <v>-3.0275731579898051</v>
+      </c>
+      <c r="I7" s="37">
+        <v>0.0024652603323944799</v>
+      </c>
+      <c r="J7" s="38">
+        <v>-0.80064549411027575</v>
+      </c>
+      <c r="K7" s="37">
+        <v>-0.17138247791770145</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="F9" s="38">
+        <v>-0.92599067599068319</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0.13667062118956566</v>
+      </c>
+      <c r="H9" s="40">
+        <v>-6.775345483403564</v>
+      </c>
+      <c r="I9" s="41">
+        <v>1.2410932244858005e-11</v>
+      </c>
+      <c r="J9" s="38">
+        <v>-1.1938601712669485</v>
+      </c>
+      <c r="K9" s="38">
+        <v>-0.65812118071441783</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="F10" s="38">
+        <v>-0.71153846153846134</v>
+      </c>
+      <c r="G10" s="38">
+        <v>0.1229861561987558</v>
+      </c>
+      <c r="H10" s="40">
+        <v>-5.7855167079826151</v>
+      </c>
+      <c r="I10" s="39">
+        <v>7.2289774766895871e-09</v>
+      </c>
+      <c r="J10" s="38">
+        <v>-0.95258689828504017</v>
+      </c>
+      <c r="K10" s="38">
+        <v>-0.47049002479188251</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="F12" s="38">
+        <v>-1.0538461538461568</v>
+      </c>
+      <c r="G12" s="38">
+        <v>0.1798369786846549</v>
+      </c>
+      <c r="H12" s="40">
+        <v>-5.860008111535735</v>
+      </c>
+      <c r="I12" s="39">
+        <v>4.6284456140762284e-09</v>
+      </c>
+      <c r="J12" s="38">
+        <v>-1.4063201551565776</v>
+      </c>
+      <c r="K12" s="38">
+        <v>-0.70137215253573593</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="F13" s="38">
+        <v>-1.8182983682983778</v>
+      </c>
+      <c r="G13" s="40">
+        <v>0.26503002004558501</v>
+      </c>
+      <c r="H13" s="40">
+        <v>-6.8607260716564538</v>
+      </c>
+      <c r="I13" s="41">
+        <v>6.8511426900677925e-12</v>
+      </c>
+      <c r="J13" s="38">
+        <v>-2.3377476624096527</v>
+      </c>
+      <c r="K13" s="38">
+        <v>-1.2988490741871028</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>862</v>
+      </c>
+      <c r="F15" s="37">
+        <v>-0.32066034365670554</v>
+      </c>
+      <c r="G15" s="38">
+        <v>0.098198044595714296</v>
+      </c>
+      <c r="H15" s="38">
+        <v>-3.2654453047092575</v>
+      </c>
+      <c r="I15" s="42">
+        <v>0.0010929211029507009</v>
+      </c>
+      <c r="J15" s="38">
+        <v>-0.51312497441656357</v>
+      </c>
+      <c r="K15" s="37">
+        <v>-0.12819571289684747</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>833</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>863</v>
+      </c>
+      <c r="F16" s="38">
+        <v>-0.62198380752959959</v>
+      </c>
+      <c r="G16" s="38">
+        <v>0.1262278020614209</v>
+      </c>
+      <c r="H16" s="38">
+        <v>-4.9274707898894565</v>
+      </c>
+      <c r="I16" s="39">
+        <v>8.3300871994063218e-07</v>
+      </c>
+      <c r="J16" s="38">
+        <v>-0.86938575341763524</v>
+      </c>
+      <c r="K16" s="37">
+        <v>-0.37458186164156393</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="F18" s="37">
+        <v>-0.29625712709214524</v>
+      </c>
+      <c r="G18" s="37">
+        <v>0.13044265420569054</v>
+      </c>
+      <c r="H18" s="38">
+        <v>-2.2711675785513195</v>
+      </c>
+      <c r="I18" s="39">
+        <v>0.023136835290526996</v>
+      </c>
+      <c r="J18" s="38">
+        <v>-0.55192003138311085</v>
+      </c>
+      <c r="K18" s="39">
+        <v>-0.040594222801179636</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="F19" s="38">
+        <v>-0.79589281419334512</v>
+      </c>
+      <c r="G19" s="37">
+        <v>0.15217747720018152</v>
+      </c>
+      <c r="H19" s="40">
+        <v>-5.2300302833013177</v>
+      </c>
+      <c r="I19" s="42">
+        <v>1.6948227442962932e-07</v>
+      </c>
+      <c r="J19" s="40">
+        <v>-1.0941551887638661</v>
+      </c>
+      <c r="K19" s="38">
+        <v>-0.49763043962282422</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>867</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="F21" s="37">
+        <v>-0.18929149983729313</v>
+      </c>
+      <c r="G21" s="37">
+        <v>0.12485370908646408</v>
+      </c>
+      <c r="H21" s="38">
+        <v>-1.5161063393495533</v>
+      </c>
+      <c r="I21" s="38">
+        <v>0.12949246560703889</v>
+      </c>
+      <c r="J21" s="38">
+        <v>-0.43400027298300392</v>
+      </c>
+      <c r="K21" s="38">
+        <v>0.055417273308417697</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>869</v>
+      </c>
+      <c r="F22" s="38">
+        <v>-0.97931418981055207</v>
+      </c>
+      <c r="G22" s="37">
+        <v>0.21386106698359444</v>
+      </c>
+      <c r="H22" s="40">
+        <v>-4.579207443520688</v>
+      </c>
+      <c r="I22" s="37">
+        <v>4.6674111940272899e-06</v>
+      </c>
+      <c r="J22" s="38">
+        <v>-1.3984741787937052</v>
+      </c>
+      <c r="K22" s="40">
+        <v>-0.56015420082739897</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="F24" s="38">
+        <v>-0.31381842362162432</v>
+      </c>
+      <c r="G24" s="38">
+        <v>0.1101717448556367</v>
+      </c>
+      <c r="H24" s="40">
+        <v>-2.8484474311706292</v>
+      </c>
+      <c r="I24" s="39">
+        <v>0.0043933110724147786</v>
+      </c>
+      <c r="J24" s="38">
+        <v>-0.52975107565260815</v>
+      </c>
+      <c r="K24" s="37">
+        <v>-0.097885771590640464</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>872</v>
+      </c>
+      <c r="F25" s="38">
+        <v>-0.66666254014515747</v>
+      </c>
+      <c r="G25" s="37">
+        <v>0.11457861967281587</v>
+      </c>
+      <c r="H25" s="40">
+        <v>-5.8183851581459161</v>
+      </c>
+      <c r="I25" s="39">
+        <v>5.9418861482291557e-09</v>
+      </c>
+      <c r="J25" s="40">
+        <v>-0.89123250810218901</v>
+      </c>
+      <c r="K25" s="38">
+        <v>-0.44209257218812592</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>873</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="F27" s="38">
+        <v>-0.32295807925750869</v>
+      </c>
+      <c r="G27" s="37">
+        <v>0.12981540773129083</v>
+      </c>
+      <c r="H27" s="38">
+        <v>-2.4878254815946828</v>
+      </c>
+      <c r="I27" s="39">
+        <v>0.012852678562043899</v>
+      </c>
+      <c r="J27" s="38">
+        <v>-0.57739160304922121</v>
+      </c>
+      <c r="K27" s="37">
+        <v>-0.068524555465796222</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>817</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>875</v>
+      </c>
+      <c r="F28" s="40">
+        <v>-0.66732042557405702</v>
+      </c>
+      <c r="G28" s="37">
+        <v>0.15746564213938413</v>
+      </c>
+      <c r="H28" s="38">
+        <v>-4.2378795558675835</v>
+      </c>
+      <c r="I28" s="42">
+        <v>2.2564075454221768e-05</v>
+      </c>
+      <c r="J28" s="38">
+        <v>-0.97594741296972254</v>
+      </c>
+      <c r="K28" s="38">
+        <v>-0.3586934381783915</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>876</v>
+      </c>
+      <c r="F29" s="8">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="F30" s="38">
+        <v>-0.5834498834498838</v>
+      </c>
+      <c r="G30" s="37">
+        <v>0.18745265824569607</v>
+      </c>
+      <c r="H30" s="40">
+        <v>-3.1125185895478218</v>
+      </c>
+      <c r="I30" s="42">
+        <v>0.0018549833106070116</v>
+      </c>
+      <c r="J30" s="38">
+        <v>-0.95085034241774324</v>
+      </c>
+      <c r="K30" s="38">
+        <v>-0.21604942448202441</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="F31" s="38">
+        <v>-1.1257575757575788</v>
+      </c>
+      <c r="G31" s="37">
+        <v>0.19112323548012317</v>
+      </c>
+      <c r="H31" s="40">
+        <v>-5.8902182820919107</v>
+      </c>
+      <c r="I31" s="39">
+        <v>3.8568583599387551e-09</v>
+      </c>
+      <c r="J31" s="40">
+        <v>-1.500352233907388</v>
+      </c>
+      <c r="K31" s="38">
+        <v>-0.75116291760776965</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>880</v>
+      </c>
+      <c r="F33" s="38">
+        <v>-0.72902097902095719</v>
+      </c>
+      <c r="G33" s="37">
+        <v>0.15108814426382852</v>
+      </c>
+      <c r="H33" s="40">
+        <v>-4.8251368932558236</v>
+      </c>
+      <c r="I33" s="42">
+        <v>1.3990713835908844e-06</v>
+      </c>
+      <c r="J33" s="40">
+        <v>-1.0251483002690529</v>
+      </c>
+      <c r="K33" s="38">
+        <v>-0.43289365777286137</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>881</v>
+      </c>
+      <c r="F34" s="40">
+        <v>-1.232226107226104</v>
+      </c>
+      <c r="G34" s="37">
+        <v>0.14212024169153847</v>
+      </c>
+      <c r="H34" s="40">
+        <v>-8.670306865228671</v>
+      </c>
+      <c r="I34" s="41">
+        <v>4.3095735631086124e-18</v>
+      </c>
+      <c r="J34" s="38">
+        <v>-1.5107766624156471</v>
+      </c>
+      <c r="K34" s="38">
+        <v>-0.95367555203656085</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="F36" s="38">
+        <v>-0.57424242424244021</v>
+      </c>
+      <c r="G36" s="37">
+        <v>0.15920900420086398</v>
+      </c>
+      <c r="H36" s="38">
+        <v>-3.6068464037244694</v>
+      </c>
+      <c r="I36" s="37">
+        <v>0.00030994100074235902</v>
+      </c>
+      <c r="J36" s="38">
+        <v>-0.88628633849061966</v>
+      </c>
+      <c r="K36" s="38">
+        <v>-0.2621985099942607</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="F37" s="40">
+        <v>-1.7615384615384659</v>
+      </c>
+      <c r="G37" s="37">
+        <v>0.20225265783907556</v>
+      </c>
+      <c r="H37" s="40">
+        <v>-8.7095936357981127</v>
+      </c>
+      <c r="I37" s="41">
+        <v>3.0496609666348613e-18</v>
+      </c>
+      <c r="J37" s="40">
+        <v>-2.1579463866805568</v>
+      </c>
+      <c r="K37" s="38">
+        <v>-1.3651305363963753</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="F39" s="40">
+        <v>-0.86806526806526696</v>
+      </c>
+      <c r="G39" s="37">
+        <v>0.11877638824972864</v>
+      </c>
+      <c r="H39" s="40">
+        <v>-7.3083992606354586</v>
+      </c>
+      <c r="I39" s="39">
+        <v>2.70343507386359e-13</v>
+      </c>
+      <c r="J39" s="38">
+        <v>-1.1008627112484815</v>
+      </c>
+      <c r="K39" s="38">
+        <v>-0.63526782488205247</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="s">
+        <v>846</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>847</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>813</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="F40" s="38">
+        <v>-1.3219114219114174</v>
+      </c>
+      <c r="G40" s="37">
+        <v>0.14925148952644662</v>
+      </c>
+      <c r="H40" s="40">
+        <v>-8.8569395595692288</v>
+      </c>
+      <c r="I40" s="42">
+        <v>8.2241095419967577e-19</v>
+      </c>
+      <c r="J40" s="38">
+        <v>-1.6144389660222098</v>
+      </c>
+      <c r="K40" s="40">
+        <v>-1.029383877800625</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K40"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>